--- a/storage/app/public/excel/revision_template.xlsx
+++ b/storage/app/public/excel/revision_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sqweez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Laravel\tooman_crm\storage\app\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7732D2EE-D7B3-41BE-BFA0-5F5647008988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D8D975-FB0E-4D9D-87C9-EC0EAF408A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,8 +58,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -70,10 +69,17 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,12 +102,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,35 +404,42 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="47.28515625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
